--- a/framework-design/Resources/ModuleFiles/JobSearch.xlsx
+++ b/framework-design/Resources/ModuleFiles/JobSearch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleConfig" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -123,9 +123,6 @@
     <t>jobSearch</t>
   </si>
   <si>
-    <t>C:\Users\C030383\Desktop\USBank Automation Framework\USBankAutomationBackupLatestThree\USBankAutomation\src\org\pack\common\excelFiles\excelData.xls</t>
-  </si>
-  <si>
     <t>findDataAndClickOnNext</t>
   </si>
   <si>
@@ -133,6 +130,12 @@
   </si>
   <si>
     <t>Tag:span;@AdditionalObjects:bodySection;@AdditionalTag:span</t>
+  </si>
+  <si>
+    <t>\\Resources\\URL\\URLs.properties</t>
+  </si>
+  <si>
+    <t>CHROME</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -184,6 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -584,13 +588,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -612,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -673,8 +677,8 @@
       <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
-        <v>35</v>
+      <c r="H2" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -699,12 +703,16 @@
       <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>35</v>
+      <c r="H3" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
 </file>